--- a/Dragonfall/gameData/shared/AllianceMap.xlsx
+++ b/Dragonfall/gameData/shared/AllianceMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-26260" yWindow="-2080" windowWidth="25600" windowHeight="14040" tabRatio="883" activeTab="11"/>
+    <workbookView xWindow="560" yWindow="1240" windowWidth="25040" windowHeight="15500" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="buildingName" sheetId="30" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="107">
   <si>
     <t>INT_x</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -423,17 +423,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1_5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5_10</t>
-  </si>
-  <si>
-    <t>5_10</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>11_15</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -462,6 +451,13 @@
   </si>
   <si>
     <t>decorate_tree_6</t>
+  </si>
+  <si>
+    <t>1_10</t>
+  </si>
+  <si>
+    <t>1_10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -607,7 +603,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1895">
+  <cellStyleXfs count="1897">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2433,6 +2429,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2536,7 +2534,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1895">
+  <cellStyles count="1897">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3486,6 +3484,7 @@
     <cellStyle name="超链接" xfId="1889" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1891" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1893" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1895" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4428,6 +4427,7 @@
     <cellStyle name="访问过的超链接" xfId="1890" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1892" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1894" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1896" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1820"/>
@@ -6450,7 +6450,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C73" s="1">
         <v>4</v>
@@ -6534,7 +6534,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C79" s="1">
         <v>26</v>
@@ -8284,7 +8284,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C204" s="1">
         <v>7</v>
@@ -9654,7 +9654,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1">
         <v>26</v>
@@ -10900,7 +10900,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C121" s="1">
         <v>5</v>
@@ -12580,7 +12580,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C241" s="1">
         <v>5</v>
@@ -12899,7 +12899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A255" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A209" workbookViewId="0">
       <selection activeCell="B261" sqref="B261"/>
     </sheetView>
   </sheetViews>
@@ -13978,7 +13978,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C77" s="1">
         <v>29</v>
@@ -14426,7 +14426,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C109" s="1">
         <v>4</v>
@@ -15266,7 +15266,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C169" s="1">
         <v>28</v>
@@ -16931,8 +16931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -17000,7 +17000,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -17031,7 +17031,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -17062,7 +17062,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -17093,7 +17093,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -17124,7 +17124,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -17155,7 +17155,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -17185,8 +17185,8 @@
       <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>98</v>
+      <c r="I8" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="7"/>
@@ -17217,8 +17217,8 @@
       <c r="H9" s="5">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>98</v>
+      <c r="I9" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="7"/>
@@ -17249,8 +17249,8 @@
       <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>98</v>
+      <c r="I10" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -17280,8 +17280,8 @@
       <c r="H11" s="5">
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>98</v>
+      <c r="I11" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -17311,8 +17311,8 @@
       <c r="H12" s="5">
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>98</v>
+      <c r="I12" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -17342,8 +17342,8 @@
       <c r="H13" s="5">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>98</v>
+      <c r="I13" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -17373,8 +17373,8 @@
       <c r="H14" s="5">
         <v>0</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>98</v>
+      <c r="I14" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -17404,8 +17404,8 @@
       <c r="H15" s="5">
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>98</v>
+      <c r="I15" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -17436,8 +17436,8 @@
       <c r="H16" s="5">
         <v>0</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>98</v>
+      <c r="I16" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -17468,8 +17468,8 @@
       <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>99</v>
+      <c r="I17" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -17500,8 +17500,8 @@
       <c r="H18" s="5">
         <v>0</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>99</v>
+      <c r="I18" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -17533,7 +17533,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1">
@@ -20978,7 +20978,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C88" s="3">
         <v>28</v>
@@ -21146,7 +21146,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C100" s="3">
         <v>3</v>
@@ -22924,7 +22924,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C227" s="1">
         <v>12</v>
@@ -24043,7 +24043,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C44" s="3">
         <v>12</v>
@@ -26031,7 +26031,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C186" s="3">
         <v>28</v>
@@ -26367,7 +26367,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C210" s="1">
         <v>9</v>
@@ -28269,7 +28269,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C82" s="1">
         <v>7</v>
@@ -28731,7 +28731,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C115" s="1">
         <v>27</v>
@@ -30411,7 +30411,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C235" s="1">
         <v>24</v>

--- a/Dragonfall/gameData/shared/AllianceMap.xlsx
+++ b/Dragonfall/gameData/shared/AllianceMap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1240" windowWidth="25040" windowHeight="15500" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="3220" yWindow="840" windowWidth="29860" windowHeight="21140" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="buildingName" sheetId="30" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="108">
   <si>
     <t>INT_x</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -453,10 +453,14 @@
     <t>decorate_tree_6</t>
   </si>
   <si>
-    <t>1_10</t>
+    <t>6_10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1_10</t>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +607,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1897">
+  <cellStyleXfs count="1913">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2429,6 +2433,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2534,7 +2554,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1897">
+  <cellStyles count="1913">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3485,6 +3505,14 @@
     <cellStyle name="超链接" xfId="1891" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1893" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1895" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1897" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1899" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1901" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1903" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1905" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1907" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1909" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1911" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4428,6 +4456,14 @@
     <cellStyle name="访问过的超链接" xfId="1892" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1894" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1896" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1898" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1900" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1902" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1904" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1906" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1908" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1910" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1912" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1820"/>
@@ -12900,7 +12936,7 @@
   <dimension ref="A1:D261"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261"/>
+      <selection activeCell="L234" sqref="L234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -16579,7 +16615,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -16931,8 +16967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -16942,7 +16978,9 @@
     <col min="3" max="3" width="19.83203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" style="5"/>
-    <col min="6" max="16384" width="20.6640625" style="1"/>
+    <col min="6" max="8" width="20.6640625" style="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
@@ -17103,7 +17141,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -17134,7 +17172,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -17165,10 +17203,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -17218,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="7"/>
@@ -17250,7 +17288,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -17281,7 +17319,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -17312,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -17343,7 +17381,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -17374,7 +17412,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -17405,7 +17443,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -17437,7 +17475,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -17469,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -17512,7 +17550,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -17537,30 +17575,94 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1">
-      <c r="C20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="8"/>
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1">
-      <c r="C21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1">
-      <c r="C22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -17585,7 +17687,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -17643,7 +17745,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="5"/>
@@ -17658,7 +17760,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="F5" s="5"/>
@@ -17673,7 +17775,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1"/>
       <c r="F6" s="5"/>
@@ -17688,7 +17790,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1"/>
       <c r="F7" s="5"/>
@@ -17703,7 +17805,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1"/>
       <c r="F8" s="5"/>
@@ -17883,6 +17985,12 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
@@ -17894,6 +18002,12 @@
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
@@ -17905,6 +18019,12 @@
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
       <c r="C22" s="6"/>
     </row>
   </sheetData>
@@ -17923,8 +18043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -17971,7 +18091,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -17988,7 +18108,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -18008,7 +18128,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -18022,7 +18142,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5">
         <v>12</v>
@@ -18042,7 +18162,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -18056,10 +18176,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -18074,10 +18194,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -18224,10 +18344,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showRuler="0" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -18257,10 +18377,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -18274,10 +18394,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -18291,10 +18411,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -18308,10 +18428,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -18325,10 +18445,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -18342,10 +18462,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -18359,10 +18479,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -18376,10 +18496,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -18394,10 +18514,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -18412,25 +18532,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5">
-        <v>6</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -18447,7 +18566,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -18464,10 +18583,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -18481,10 +18600,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -18498,27 +18617,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -18533,10 +18653,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -18551,10 +18671,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -18569,28 +18689,21 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6">
         <v>7</v>
       </c>
-      <c r="C20" s="6">
-        <v>5</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1">
@@ -18601,7 +18714,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="20" customHeight="1">
@@ -18612,7 +18725,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="20" customHeight="1">
@@ -18623,7 +18736,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="20" customHeight="1">
@@ -18634,15 +18747,22 @@
         <v>4</v>
       </c>
       <c r="C25" s="6">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="6">
         <v>7</v>
@@ -18665,22 +18785,15 @@
       <c r="C27" s="6">
         <v>6</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5">
         <v>5</v>
       </c>
     </row>
@@ -18689,7 +18802,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="5">
         <v>4</v>
@@ -18700,7 +18813,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="5">
         <v>3</v>
@@ -18711,10 +18824,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20" customHeight="1">
@@ -18722,10 +18835,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -18733,10 +18846,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C33" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -18744,10 +18857,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -18755,10 +18868,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -18766,10 +18879,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -18777,10 +18890,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -18788,10 +18901,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -18799,10 +18912,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -18810,10 +18923,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -18821,10 +18934,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
+        <v>9</v>
+      </c>
+      <c r="C41" s="5">
         <v>8</v>
-      </c>
-      <c r="C41" s="5">
-        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
@@ -18832,10 +18945,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
@@ -18846,7 +18959,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
@@ -18857,7 +18970,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
@@ -18868,7 +18981,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
@@ -18879,7 +18992,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
@@ -18890,7 +19003,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1">
@@ -18901,7 +19014,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" customHeight="1">
@@ -18909,7 +19022,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="5">
         <v>8</v>
@@ -18920,7 +19033,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="5">
         <v>7</v>
@@ -18942,7 +19055,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="5">
         <v>5</v>
@@ -18953,7 +19066,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="5">
         <v>4</v>
@@ -18964,7 +19077,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="5">
         <v>3</v>
@@ -18975,7 +19088,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="5">
         <v>2</v>
@@ -18986,10 +19099,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1">
@@ -18997,10 +19110,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" s="5">
         <v>2</v>
-      </c>
-      <c r="C57" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20" customHeight="1">
@@ -19008,10 +19121,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C58" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1">
@@ -19019,10 +19132,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C59" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1">
@@ -19030,10 +19143,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
@@ -19041,10 +19154,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1">
@@ -19052,10 +19165,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C62" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1">
@@ -19063,10 +19176,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C63" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" customHeight="1">
@@ -19074,10 +19187,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20" customHeight="1">
@@ -19085,10 +19198,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20" customHeight="1">
@@ -19096,10 +19209,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C66" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20" customHeight="1">
@@ -19107,10 +19220,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20" customHeight="1">
@@ -19118,10 +19231,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C68" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20" customHeight="1">
@@ -19129,10 +19242,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20" customHeight="1">
@@ -19140,10 +19253,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
+        <v>10</v>
+      </c>
+      <c r="C70" s="5">
         <v>9</v>
-      </c>
-      <c r="C70" s="5">
-        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20" customHeight="1">
@@ -19151,10 +19264,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20" customHeight="1">
@@ -19165,7 +19278,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20" customHeight="1">
@@ -19176,7 +19289,7 @@
         <v>8</v>
       </c>
       <c r="C73" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20" customHeight="1">
@@ -19187,7 +19300,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20" customHeight="1">
@@ -19198,7 +19311,7 @@
         <v>6</v>
       </c>
       <c r="C75" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20" customHeight="1">
@@ -19209,7 +19322,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20" customHeight="1">
@@ -19220,7 +19333,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1">
@@ -19231,7 +19344,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1">
@@ -19242,7 +19355,7 @@
         <v>2</v>
       </c>
       <c r="C79" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1">
@@ -19250,7 +19363,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" s="5">
         <v>9</v>
@@ -19261,7 +19374,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" s="5">
         <v>8</v>
@@ -19272,7 +19385,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" s="5">
         <v>7</v>
@@ -19294,7 +19407,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="5">
         <v>5</v>
@@ -19305,7 +19418,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="5">
         <v>4</v>
@@ -19316,7 +19429,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="5">
         <v>3</v>
@@ -19327,7 +19440,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" s="5">
         <v>2</v>
@@ -19338,7 +19451,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="5">
         <v>1</v>
@@ -19349,10 +19462,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C89" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20" customHeight="1">
@@ -19360,10 +19473,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
+        <v>3</v>
+      </c>
+      <c r="C90" s="5">
         <v>1</v>
-      </c>
-      <c r="C90" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20" customHeight="1">
@@ -19371,10 +19484,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20" customHeight="1">
@@ -19382,10 +19495,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20" customHeight="1">
@@ -19393,10 +19506,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C93" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20" customHeight="1">
@@ -19404,10 +19517,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20" customHeight="1">
@@ -19415,10 +19528,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C95" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20" customHeight="1">
@@ -19426,10 +19539,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20" customHeight="1">
@@ -19437,10 +19550,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C97" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="20" customHeight="1">
@@ -19448,10 +19561,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C98" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="20" customHeight="1">
@@ -19459,10 +19572,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C99" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="20" customHeight="1">
@@ -19470,10 +19583,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C100" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20" customHeight="1">
@@ -19481,10 +19594,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C101" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="20" customHeight="1">
@@ -19492,10 +19605,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C102" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1">
@@ -19503,10 +19616,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C103" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="20" customHeight="1">
@@ -19514,10 +19627,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C104" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
@@ -19525,10 +19638,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C105" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
@@ -19536,10 +19649,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C106" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
@@ -19547,10 +19660,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="1">
+        <v>11</v>
+      </c>
+      <c r="C107" s="5">
         <v>10</v>
-      </c>
-      <c r="C107" s="5">
-        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -19558,10 +19671,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C108" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
@@ -19572,7 +19685,7 @@
         <v>10</v>
       </c>
       <c r="C109" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
@@ -19583,7 +19696,7 @@
         <v>9</v>
       </c>
       <c r="C110" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
@@ -19594,7 +19707,7 @@
         <v>8</v>
       </c>
       <c r="C111" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
@@ -19605,7 +19718,7 @@
         <v>7</v>
       </c>
       <c r="C112" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
@@ -19616,7 +19729,7 @@
         <v>6</v>
       </c>
       <c r="C113" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
@@ -19627,7 +19740,7 @@
         <v>5</v>
       </c>
       <c r="C114" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
@@ -19638,7 +19751,7 @@
         <v>4</v>
       </c>
       <c r="C115" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
@@ -19649,7 +19762,7 @@
         <v>3</v>
       </c>
       <c r="C116" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
@@ -19660,7 +19773,7 @@
         <v>2</v>
       </c>
       <c r="C117" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
@@ -19671,7 +19784,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
@@ -19679,7 +19792,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" s="5">
         <v>10</v>
@@ -19690,7 +19803,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="5">
         <v>9</v>
@@ -19701,7 +19814,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" s="5">
         <v>8</v>
@@ -19712,7 +19825,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" s="5">
         <v>7</v>
@@ -19727,6 +19840,523 @@
       </c>
       <c r="C123" s="5">
         <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="20" customHeight="1">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="20" customHeight="1">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="20" customHeight="1">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="20" customHeight="1">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="C127" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="20" customHeight="1">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="20" customHeight="1">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="20" customHeight="1">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+      <c r="C130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="20" customHeight="1">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2</v>
+      </c>
+      <c r="C131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="20" customHeight="1">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1">
+        <v>3</v>
+      </c>
+      <c r="C132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="20" customHeight="1">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4</v>
+      </c>
+      <c r="C133" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="20" customHeight="1">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1">
+        <v>5</v>
+      </c>
+      <c r="C134" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="20" customHeight="1">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1">
+        <v>6</v>
+      </c>
+      <c r="C135" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="20" customHeight="1">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1">
+        <v>7</v>
+      </c>
+      <c r="C136" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="20" customHeight="1">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1">
+        <v>8</v>
+      </c>
+      <c r="C137" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="20" customHeight="1">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1">
+        <v>9</v>
+      </c>
+      <c r="C138" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="20" customHeight="1">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1">
+        <v>10</v>
+      </c>
+      <c r="C139" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="20" customHeight="1">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1">
+        <v>11</v>
+      </c>
+      <c r="C140" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="20" customHeight="1">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1">
+        <v>12</v>
+      </c>
+      <c r="C141" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="20" customHeight="1">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1">
+        <v>12</v>
+      </c>
+      <c r="C142" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="20" customHeight="1">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1">
+        <v>12</v>
+      </c>
+      <c r="C143" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="20" customHeight="1">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1">
+        <v>12</v>
+      </c>
+      <c r="C144" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="20" customHeight="1">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1">
+        <v>12</v>
+      </c>
+      <c r="C145" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="20" customHeight="1">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1">
+        <v>12</v>
+      </c>
+      <c r="C146" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="20" customHeight="1">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1">
+        <v>12</v>
+      </c>
+      <c r="C147" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="20" customHeight="1">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1">
+        <v>12</v>
+      </c>
+      <c r="C148" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="20" customHeight="1">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1">
+        <v>12</v>
+      </c>
+      <c r="C149" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="20" customHeight="1">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1">
+        <v>12</v>
+      </c>
+      <c r="C150" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="20" customHeight="1">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1">
+        <v>12</v>
+      </c>
+      <c r="C151" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="20" customHeight="1">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1">
+        <v>12</v>
+      </c>
+      <c r="C152" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="20" customHeight="1">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1">
+        <v>12</v>
+      </c>
+      <c r="C153" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="20" customHeight="1">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1">
+        <v>11</v>
+      </c>
+      <c r="C154" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="20" customHeight="1">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1">
+        <v>10</v>
+      </c>
+      <c r="C155" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="20" customHeight="1">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1">
+        <v>9</v>
+      </c>
+      <c r="C156" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="20" customHeight="1">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1">
+        <v>8</v>
+      </c>
+      <c r="C157" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="20" customHeight="1">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1">
+        <v>7</v>
+      </c>
+      <c r="C158" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="20" customHeight="1">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1">
+        <v>6</v>
+      </c>
+      <c r="C159" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="20" customHeight="1">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1">
+        <v>5</v>
+      </c>
+      <c r="C160" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="20" customHeight="1">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1">
+        <v>4</v>
+      </c>
+      <c r="C161" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="20" customHeight="1">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1">
+        <v>3</v>
+      </c>
+      <c r="C162" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="20" customHeight="1">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1">
+        <v>2</v>
+      </c>
+      <c r="C163" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="20" customHeight="1">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1</v>
+      </c>
+      <c r="C164" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="20" customHeight="1">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0</v>
+      </c>
+      <c r="C165" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="20" customHeight="1">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1">
+        <v>0</v>
+      </c>
+      <c r="C166" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="20" customHeight="1">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1">
+        <v>0</v>
+      </c>
+      <c r="C167" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="20" customHeight="1">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1">
+        <v>0</v>
+      </c>
+      <c r="C168" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="20" customHeight="1">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1">
+        <v>0</v>
+      </c>
+      <c r="C169" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="20" customHeight="1">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1">
+        <v>0</v>
+      </c>
+      <c r="C170" s="5">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Dragonfall/gameData/shared/AllianceMap.xlsx
+++ b/Dragonfall/gameData/shared/AllianceMap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="883" activeTab="11"/>
+    <workbookView xWindow="580" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="883" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="buildingName" sheetId="30" r:id="rId1"/>
@@ -13,17 +13,22 @@
     <sheet name="moveLimit" sheetId="33" r:id="rId4"/>
     <sheet name="bigRound" sheetId="34" r:id="rId5"/>
     <sheet name="roundIndex" sheetId="35" r:id="rId6"/>
-    <sheet name="allianceMap_1" sheetId="24" r:id="rId7"/>
-    <sheet name="allianceMap_2" sheetId="25" r:id="rId8"/>
-    <sheet name="allianceMap_3" sheetId="26" r:id="rId9"/>
-    <sheet name="allianceMap_4" sheetId="27" r:id="rId10"/>
-    <sheet name="allianceMap_5" sheetId="28" r:id="rId11"/>
-    <sheet name="allianceMap_6" sheetId="29" r:id="rId12"/>
+    <sheet name="monsters" sheetId="36" r:id="rId7"/>
+    <sheet name="allianceMap_1" sheetId="24" r:id="rId8"/>
+    <sheet name="allianceMap_2" sheetId="25" r:id="rId9"/>
+    <sheet name="allianceMap_3" sheetId="26" r:id="rId10"/>
+    <sheet name="allianceMap_4" sheetId="27" r:id="rId11"/>
+    <sheet name="allianceMap_5" sheetId="28" r:id="rId12"/>
+    <sheet name="allianceMap_6" sheetId="29" r:id="rId13"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
@@ -31,6 +36,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
@@ -38,6 +44,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
@@ -45,6 +52,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
@@ -60,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="120">
   <si>
     <t>INT_x</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -466,6 +474,49 @@
   <si>
     <t>decorate_tree_5</t>
   </si>
+  <si>
+    <t>STR_dragon</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_soldiers</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_rewards</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:1:1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_1:2:2,items:stoneClass_1:2:2,items:ironClass_1:2:2,items:foodClass_1:2:2,items:coinClass_1:2:1,items:gemClass_1:1:1,buildingMaterials:blueprints:1:25,buildingMaterials:tools:1:25,buildingMaterials:tiles:1:25,buildingMaterials:pulley:1:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:1:2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2:1:20,ballista_2:1:8,swordsman_2:1:10;sentinel_2:1:20,lancer_2:1:8,horseArcher_2:1:5;horseArcher_2:1:10,catapult_2:1:8,sentinel_2:1:10</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:5:2,items:stoneClass_1:5:2,items:ironClass_1:5:2,items:foodClass_1:5:2,items:coinClass_1:5:1,items:gemClass_1:2:1,buildingMaterials:blueprints:2:25,buildingMaterials:tools:2:25,buildingMaterials:tiles:2:25,buildingMaterials:pulley:2:25,items:redbag_1:1:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>undeadsquad</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>necronator</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:4,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:4,sentinel_2:1:5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -554,7 +605,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +616,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2529,7 +2586,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2554,6 +2611,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4545,6 +4623,29 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="intInit"/>
+      <sheetName val="stringInit"/>
+      <sheetName val="right"/>
+      <sheetName val="donate"/>
+      <sheetName val="shrineStage"/>
+      <sheetName val="monsters"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5467,7 +5568,7 @@
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5495,10 +5596,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -5512,7 +5613,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -5523,10 +5624,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -5537,10 +5638,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5554,7 +5655,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5568,10 +5669,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -5582,7 +5683,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -5596,7 +5697,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -5610,7 +5711,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -5621,10 +5722,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -5635,10 +5736,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -5649,13 +5750,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -5663,13 +5764,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -5677,13 +5778,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -5697,7 +5798,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -5705,13 +5806,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -5719,13 +5820,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -5733,13 +5834,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -5747,13 +5848,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -5761,13 +5862,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -5775,13 +5876,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -5789,13 +5890,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -5806,10 +5907,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -5817,13 +5918,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -5831,13 +5932,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -5848,10 +5949,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -5859,13 +5960,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -5873,13 +5974,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -5890,10 +5991,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -5901,13 +6002,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -5918,10 +6019,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -5929,13 +6030,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -5943,13 +6044,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -5957,13 +6058,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -5974,10 +6075,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -5985,13 +6086,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -5999,13 +6100,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -6013,13 +6114,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D39" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -6027,10 +6128,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1">
         <v>8</v>
@@ -6041,13 +6142,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -6058,10 +6159,10 @@
         <v>5</v>
       </c>
       <c r="C42" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D42" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -6072,10 +6173,10 @@
         <v>4</v>
       </c>
       <c r="C43" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -6083,13 +6184,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1">
         <v>8</v>
-      </c>
-      <c r="D44" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -6097,13 +6198,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C45" s="1">
         <v>12</v>
       </c>
       <c r="D45" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -6111,10 +6212,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1">
         <v>9</v>
@@ -6125,13 +6226,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -6139,13 +6240,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -6153,13 +6254,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -6167,13 +6268,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -6184,10 +6285,10 @@
         <v>6</v>
       </c>
       <c r="C51" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D51" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -6195,10 +6296,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D52" s="1">
         <v>10</v>
@@ -6209,13 +6310,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D53" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -6223,13 +6324,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1">
         <v>7</v>
       </c>
-      <c r="C54" s="1">
-        <v>11</v>
-      </c>
       <c r="D54" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -6237,13 +6338,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C55" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D55" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -6251,13 +6352,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C56" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -6265,13 +6366,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D57" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -6279,13 +6380,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D58" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -6293,13 +6394,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C59" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D59" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -6307,13 +6408,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D60" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -6321,13 +6422,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D61" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -6335,13 +6436,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C62" s="1">
         <v>11</v>
       </c>
       <c r="D62" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -6349,13 +6450,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1">
         <v>12</v>
       </c>
       <c r="D63" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -6369,7 +6470,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -6377,13 +6478,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C65" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D65" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -6391,13 +6492,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C66" s="1">
         <v>8</v>
       </c>
       <c r="D66" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -6411,7 +6512,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -6419,13 +6520,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68" s="1">
         <v>10</v>
       </c>
       <c r="D68" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -6433,13 +6534,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" s="1">
+        <v>11</v>
+      </c>
+      <c r="D69" s="1">
         <v>12</v>
-      </c>
-      <c r="D69" s="1">
-        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -6447,13 +6548,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C70" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D70" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -6461,13 +6562,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C71" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D71" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -6475,13 +6576,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="C72" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D72" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -6489,13 +6590,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
       </c>
       <c r="D73" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -6503,13 +6604,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C74" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D74" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -6520,10 +6621,10 @@
         <v>5</v>
       </c>
       <c r="C75" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -6531,13 +6632,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D76" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -6545,13 +6646,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -6559,13 +6660,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D78" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -6573,13 +6674,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D79" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -6587,13 +6688,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D80" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -6601,13 +6702,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C81" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D81" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -6615,13 +6716,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D82" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -6629,13 +6730,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -6643,13 +6744,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C84" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -6657,13 +6758,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -6671,13 +6772,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D86" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -6685,13 +6786,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C87" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D87" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -6699,13 +6800,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D88" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -6713,13 +6814,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C89" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D89" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -6727,13 +6828,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C90" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -6744,10 +6845,10 @@
         <v>6</v>
       </c>
       <c r="C91" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D91" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -6755,13 +6856,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D92" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -6769,10 +6870,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D93" s="1">
         <v>18</v>
@@ -6783,10 +6884,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D94" s="1">
         <v>18</v>
@@ -6797,10 +6898,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D95" s="1">
         <v>18</v>
@@ -6814,10 +6915,10 @@
         <v>6</v>
       </c>
       <c r="C96" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D96" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -6825,13 +6926,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C97" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D97" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -6839,10 +6940,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="C98" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" s="1">
         <v>19</v>
@@ -6853,10 +6954,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C99" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D99" s="1">
         <v>19</v>
@@ -6867,10 +6968,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D100" s="1">
         <v>19</v>
@@ -6881,10 +6982,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C101" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D101" s="1">
         <v>19</v>
@@ -6895,10 +6996,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C102" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D102" s="1">
         <v>19</v>
@@ -6909,7 +7010,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C103" s="1">
         <v>18</v>
@@ -6935,7 +7036,7 @@
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D103"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6963,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -6994,7 +7095,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -7019,7 +7120,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>15</v>
@@ -7033,13 +7134,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -7047,10 +7148,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -7061,10 +7162,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -7075,10 +7176,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -7089,10 +7190,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -7103,10 +7204,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -7117,13 +7218,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -7134,10 +7235,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -7145,13 +7246,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -7159,10 +7260,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -7173,13 +7274,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -7187,13 +7288,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -7201,13 +7302,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -7215,13 +7316,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -7229,13 +7330,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
       </c>
       <c r="D21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -7246,10 +7347,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -7257,13 +7358,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -7271,13 +7372,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -7285,13 +7386,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -7299,13 +7400,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -7313,13 +7414,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -7327,13 +7428,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -7341,13 +7442,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -7355,13 +7456,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -7369,13 +7470,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -7386,10 +7487,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -7397,13 +7498,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -7411,13 +7512,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -7425,13 +7526,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -7439,13 +7540,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -7453,13 +7554,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -7467,13 +7568,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1">
         <v>8</v>
-      </c>
-      <c r="D38" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -7481,13 +7582,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -7495,13 +7596,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D40" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -7509,13 +7610,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -7523,13 +7624,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -7537,13 +7638,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C43" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -7551,13 +7652,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1">
         <v>9</v>
-      </c>
-      <c r="D44" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -7565,13 +7666,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -7582,10 +7683,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -7593,13 +7694,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -7607,13 +7708,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -7621,13 +7722,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C49" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -7635,13 +7736,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -7649,13 +7750,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C51" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -7663,13 +7764,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -7680,10 +7781,10 @@
         <v>3</v>
       </c>
       <c r="C53" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D53" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -7691,13 +7792,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -7705,13 +7806,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>12</v>
+      </c>
+      <c r="D55" s="1">
         <v>11</v>
-      </c>
-      <c r="C55" s="1">
-        <v>8</v>
-      </c>
-      <c r="D55" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -7719,13 +7820,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -7733,13 +7834,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D57" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -7747,13 +7848,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -7761,13 +7862,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C59" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -7775,13 +7876,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -7789,13 +7890,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -7803,13 +7904,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1">
+        <v>11</v>
+      </c>
+      <c r="D62" s="1">
         <v>12</v>
-      </c>
-      <c r="D62" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -7817,13 +7918,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C63" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -7831,10 +7932,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D64" s="1">
         <v>12</v>
@@ -7845,13 +7946,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C65" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D65" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -7859,13 +7960,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C66" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -7873,13 +7974,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C67" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -7887,13 +7988,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -7901,13 +8002,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C69" s="1">
         <v>12</v>
       </c>
       <c r="D69" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -7915,13 +8016,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C70" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -7929,13 +8030,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
       </c>
       <c r="D71" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -7946,10 +8047,10 @@
         <v>4</v>
       </c>
       <c r="C72" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -7957,13 +8058,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C73" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D73" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -7971,13 +8072,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C74" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -7988,10 +8089,10 @@
         <v>5</v>
       </c>
       <c r="C75" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D75" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -7999,13 +8100,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C76" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D76" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -8016,10 +8117,10 @@
         <v>5</v>
       </c>
       <c r="C77" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D77" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -8027,13 +8128,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D78" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -8044,10 +8145,10 @@
         <v>3</v>
       </c>
       <c r="C79" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -8058,10 +8159,10 @@
         <v>5</v>
       </c>
       <c r="C80" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -8069,13 +8170,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D81" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -8083,13 +8184,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -8097,13 +8198,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D83" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -8111,13 +8212,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C84" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -8125,13 +8226,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -8142,10 +8243,10 @@
         <v>5</v>
       </c>
       <c r="C86" s="1">
+        <v>6</v>
+      </c>
+      <c r="D86" s="1">
         <v>17</v>
-      </c>
-      <c r="D86" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -8153,13 +8254,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D87" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -8170,10 +8271,10 @@
         <v>3</v>
       </c>
       <c r="C88" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D88" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -8181,13 +8282,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D89" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -8195,13 +8296,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D90" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -8209,13 +8310,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D91" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -8223,13 +8324,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C92" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -8237,13 +8338,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C93" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -8251,10 +8352,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C94" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D94" s="1">
         <v>18</v>
@@ -8265,10 +8366,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C95" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D95" s="1">
         <v>18</v>
@@ -8279,13 +8380,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C96" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D96" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -8293,13 +8394,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D97" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -8307,13 +8408,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D98" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -8321,13 +8422,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C99" s="1">
+        <v>6</v>
+      </c>
+      <c r="D99" s="1">
         <v>19</v>
-      </c>
-      <c r="D99" s="1">
-        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -8335,10 +8436,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D100" s="1">
         <v>19</v>
@@ -8349,10 +8450,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D101" s="1">
         <v>19</v>
@@ -8363,10 +8464,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D102" s="1">
         <v>19</v>
@@ -8377,10 +8478,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D103" s="1">
         <v>19</v>
@@ -8402,8 +8503,1476 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showRuler="0" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>18</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>17</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20" customHeight="1">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20" customHeight="1">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20" customHeight="1">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="20" customHeight="1">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20" customHeight="1">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="1">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20" customHeight="1">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20" customHeight="1">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="20" customHeight="1">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20" customHeight="1">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20" customHeight="1">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>13</v>
+      </c>
+      <c r="D52" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20" customHeight="1">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>6</v>
+      </c>
+      <c r="D53" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20" customHeight="1">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20" customHeight="1">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20" customHeight="1">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="1">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="20" customHeight="1">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>13</v>
+      </c>
+      <c r="D57" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20" customHeight="1">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1">
+        <v>14</v>
+      </c>
+      <c r="D58" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20" customHeight="1">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="20" customHeight="1">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="20" customHeight="1">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="20" customHeight="1">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20" customHeight="1">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="1">
+        <v>7</v>
+      </c>
+      <c r="D64" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="20" customHeight="1">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="1">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="20" customHeight="1">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="20" customHeight="1">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>10</v>
+      </c>
+      <c r="D67" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="20" customHeight="1">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>11</v>
+      </c>
+      <c r="D68" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="20" customHeight="1">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="1">
+        <v>12</v>
+      </c>
+      <c r="D69" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="20" customHeight="1">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1">
+        <v>13</v>
+      </c>
+      <c r="D70" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="20" customHeight="1">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="20" customHeight="1">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="20" customHeight="1">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="20" customHeight="1">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="20" customHeight="1">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1">
+        <v>11</v>
+      </c>
+      <c r="D75" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="20" customHeight="1">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="20" customHeight="1">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>19</v>
+      </c>
+      <c r="D77" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="20" customHeight="1">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="20" customHeight="1">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="20" customHeight="1">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1">
+        <v>9</v>
+      </c>
+      <c r="D80" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="20" customHeight="1">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>11</v>
+      </c>
+      <c r="D81" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="20" customHeight="1">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>18</v>
+      </c>
+      <c r="D82" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="20" customHeight="1">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1">
+        <v>19</v>
+      </c>
+      <c r="D83" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="20" customHeight="1">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="20" customHeight="1">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="20" customHeight="1">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="1">
+        <v>17</v>
+      </c>
+      <c r="D86" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="20" customHeight="1">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="1">
+        <v>18</v>
+      </c>
+      <c r="D87" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="20" customHeight="1">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="20" customHeight="1">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1">
+        <v>5</v>
+      </c>
+      <c r="D89" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="20" customHeight="1">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="1">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="20" customHeight="1">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1">
+        <v>7</v>
+      </c>
+      <c r="D91" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="20" customHeight="1">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1">
+        <v>15</v>
+      </c>
+      <c r="D92" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="20" customHeight="1">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="1">
+        <v>16</v>
+      </c>
+      <c r="D93" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="20" customHeight="1">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1">
+        <v>5</v>
+      </c>
+      <c r="D94" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="20" customHeight="1">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1">
+        <v>6</v>
+      </c>
+      <c r="D95" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="20" customHeight="1">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1">
+        <v>14</v>
+      </c>
+      <c r="D96" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="20" customHeight="1">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="1">
+        <v>15</v>
+      </c>
+      <c r="D97" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="20" customHeight="1">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1">
+        <v>16</v>
+      </c>
+      <c r="D98" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="20" customHeight="1">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="1">
+        <v>19</v>
+      </c>
+      <c r="D99" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="20" customHeight="1">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="20" customHeight="1">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="20" customHeight="1">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1">
+        <v>16</v>
+      </c>
+      <c r="D102" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="20" customHeight="1">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1">
+        <v>17</v>
+      </c>
+      <c r="D103" s="1">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D103"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13628,6 +15197,265 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="16"/>
+    <col min="2" max="2" width="20" style="16" customWidth="1"/>
+    <col min="3" max="3" width="78.83203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="140.6640625" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="12" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+    </row>
+    <row r="41" spans="1:3" ht="48" customHeight="1">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A94" workbookViewId="0">
@@ -15349,7 +17177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D188"/>
   <sheetViews>
@@ -17071,1472 +18899,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D103"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="1">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1">
-        <v>17</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1">
-        <v>18</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="1">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1">
-        <v>17</v>
-      </c>
-      <c r="D30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1">
-        <v>19</v>
-      </c>
-      <c r="D31" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1">
-        <v>9</v>
-      </c>
-      <c r="D33" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1">
-        <v>19</v>
-      </c>
-      <c r="D35" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1">
-        <v>10</v>
-      </c>
-      <c r="D36" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1">
-        <v>11</v>
-      </c>
-      <c r="D37" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="1">
-        <v>18</v>
-      </c>
-      <c r="D39" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="1">
-        <v>7</v>
-      </c>
-      <c r="D40" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="1">
-        <v>9</v>
-      </c>
-      <c r="D42" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1">
-        <v>10</v>
-      </c>
-      <c r="D43" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="20" customHeight="1">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="1">
-        <v>11</v>
-      </c>
-      <c r="D44" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="1">
-        <v>12</v>
-      </c>
-      <c r="D45" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="20" customHeight="1">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="1">
-        <v>6</v>
-      </c>
-      <c r="D46" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="20" customHeight="1">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="1">
-        <v>7</v>
-      </c>
-      <c r="D47" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="20" customHeight="1">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1">
-        <v>8</v>
-      </c>
-      <c r="D48" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1">
-        <v>12</v>
-      </c>
-      <c r="D49" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="20" customHeight="1">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="1">
-        <v>14</v>
-      </c>
-      <c r="D50" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1">
-        <v>19</v>
-      </c>
-      <c r="D51" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="20" customHeight="1">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="1">
-        <v>5</v>
-      </c>
-      <c r="D52" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="1">
-        <v>6</v>
-      </c>
-      <c r="D53" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="20" customHeight="1">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1">
-        <v>7</v>
-      </c>
-      <c r="D54" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="1">
-        <v>8</v>
-      </c>
-      <c r="D55" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="20" customHeight="1">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="1">
-        <v>12</v>
-      </c>
-      <c r="D56" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1">
-        <v>13</v>
-      </c>
-      <c r="D57" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="20" customHeight="1">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="1">
-        <v>14</v>
-      </c>
-      <c r="D58" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="1">
-        <v>15</v>
-      </c>
-      <c r="D59" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="20" customHeight="1">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="1">
-        <v>7</v>
-      </c>
-      <c r="D60" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1">
-        <v>8</v>
-      </c>
-      <c r="D61" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="20" customHeight="1">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="1">
-        <v>11</v>
-      </c>
-      <c r="D62" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="20" customHeight="1">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="1">
-        <v>12</v>
-      </c>
-      <c r="D63" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="20" customHeight="1">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="1">
-        <v>13</v>
-      </c>
-      <c r="D64" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="20" customHeight="1">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="1">
-        <v>14</v>
-      </c>
-      <c r="D65" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="20" customHeight="1">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="1">
-        <v>8</v>
-      </c>
-      <c r="D66" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="20" customHeight="1">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="1">
-        <v>9</v>
-      </c>
-      <c r="D67" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="20" customHeight="1">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="1">
-        <v>10</v>
-      </c>
-      <c r="D68" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="20" customHeight="1">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="1">
-        <v>11</v>
-      </c>
-      <c r="D69" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="20" customHeight="1">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" s="1">
-        <v>12</v>
-      </c>
-      <c r="D70" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="20" customHeight="1">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="1">
-        <v>13</v>
-      </c>
-      <c r="D71" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="20" customHeight="1">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="1">
-        <v>18</v>
-      </c>
-      <c r="D72" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="20" customHeight="1">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="1">
-        <v>2</v>
-      </c>
-      <c r="D73" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="20" customHeight="1">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="1">
-        <v>9</v>
-      </c>
-      <c r="D74" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="20" customHeight="1">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="1">
-        <v>10</v>
-      </c>
-      <c r="D75" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="20" customHeight="1">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="1">
-        <v>17</v>
-      </c>
-      <c r="D76" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="20" customHeight="1">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="20" customHeight="1">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="1">
-        <v>10</v>
-      </c>
-      <c r="D78" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="20" customHeight="1">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="1">
-        <v>11</v>
-      </c>
-      <c r="D79" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="20" customHeight="1">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="1">
-        <v>12</v>
-      </c>
-      <c r="D80" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="20" customHeight="1">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="1">
-        <v>18</v>
-      </c>
-      <c r="D81" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="20" customHeight="1">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="1">
-        <v>19</v>
-      </c>
-      <c r="D82" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="20" customHeight="1">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
-      <c r="D83" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="20" customHeight="1">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="1">
-        <v>2</v>
-      </c>
-      <c r="D84" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="20" customHeight="1">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="1">
-        <v>10</v>
-      </c>
-      <c r="D85" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="20" customHeight="1">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="1">
-        <v>18</v>
-      </c>
-      <c r="D86" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="20" customHeight="1">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="1">
-        <v>5</v>
-      </c>
-      <c r="D87" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="20" customHeight="1">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="1">
-        <v>17</v>
-      </c>
-      <c r="D88" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="20" customHeight="1">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="1">
-        <v>18</v>
-      </c>
-      <c r="D89" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="20" customHeight="1">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="1">
-        <v>5</v>
-      </c>
-      <c r="D90" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="20" customHeight="1">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="1">
-        <v>6</v>
-      </c>
-      <c r="D91" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="20" customHeight="1">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="1">
-        <v>19</v>
-      </c>
-      <c r="D92" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="20" customHeight="1">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="1">
-        <v>3</v>
-      </c>
-      <c r="D93" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="20" customHeight="1">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="1">
-        <v>4</v>
-      </c>
-      <c r="D94" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="20" customHeight="1">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="1">
-        <v>5</v>
-      </c>
-      <c r="D95" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="20" customHeight="1">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" s="1">
-        <v>15</v>
-      </c>
-      <c r="D96" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="20" customHeight="1">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="1">
-        <v>19</v>
-      </c>
-      <c r="D97" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="20" customHeight="1">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C98" s="1">
-        <v>2</v>
-      </c>
-      <c r="D98" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="20" customHeight="1">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" s="1">
-        <v>3</v>
-      </c>
-      <c r="D99" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="20" customHeight="1">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="1">
-        <v>4</v>
-      </c>
-      <c r="D100" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="20" customHeight="1">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="1">
-        <v>14</v>
-      </c>
-      <c r="D101" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="20" customHeight="1">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="1">
-        <v>15</v>
-      </c>
-      <c r="D102" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="20" customHeight="1">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="1">
-        <v>18</v>
-      </c>
-      <c r="D103" s="1">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Dragonfall/gameData/shared/AllianceMap.xlsx
+++ b/Dragonfall/gameData/shared/AllianceMap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="883" activeTab="6"/>
+    <workbookView xWindow="580" yWindow="0" windowWidth="25600" windowHeight="17280" tabRatio="883" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="buildingName" sheetId="30" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="allianceMap_5" sheetId="28" r:id="rId12"/>
     <sheet name="allianceMap_6" sheetId="29" r:id="rId13"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId14"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
@@ -4623,29 +4620,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="intInit"/>
-      <sheetName val="stringInit"/>
-      <sheetName val="right"/>
-      <sheetName val="donate"/>
-      <sheetName val="shrineStage"/>
-      <sheetName val="monsters"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12510,8 +12484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12539,7 +12513,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1"/>
       <c r="F2" s="5"/>
@@ -15199,7 +15173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Dragonfall/gameData/shared/AllianceMap.xlsx
+++ b/Dragonfall/gameData/shared/AllianceMap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="0" windowWidth="25600" windowHeight="17280" tabRatio="883" activeTab="3"/>
+    <workbookView xWindow="1220" yWindow="120" windowWidth="32520" windowHeight="18680" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="buildingName" sheetId="30" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="119">
   <si>
     <t>INT_x</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -455,17 +455,6 @@
     <t>decorate_tree_8</t>
   </si>
   <si>
-    <t>6_10</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_5</t>
-  </si>
-  <si>
-    <t>1_5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>decorate_tree_7</t>
   </si>
   <si>
@@ -512,6 +501,13 @@
   </si>
   <si>
     <t>crossbowman_2:1:10,ballista_2:1:4,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:4,sentinel_2:1:5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_10</t>
+  </si>
+  <si>
+    <t>1_10</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +660,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1913">
+  <cellStyleXfs count="1921">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2490,6 +2486,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2632,7 +2636,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1913">
+  <cellStyles count="1921">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3591,6 +3595,10 @@
     <cellStyle name="超链接" xfId="1907" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1909" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1911" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1913" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1915" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1917" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1919" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4542,6 +4550,10 @@
     <cellStyle name="访问过的超链接" xfId="1908" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1910" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1912" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1914" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1916" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1918" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1920" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1820"/>
@@ -5822,7 +5834,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1">
         <v>17</v>
@@ -6914,7 +6926,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C98" s="1">
         <v>2</v>
@@ -7262,7 +7274,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -8074,7 +8086,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C76" s="1">
         <v>16</v>
@@ -8716,7 +8728,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -9668,7 +9680,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C85" s="1">
         <v>3</v>
@@ -10212,7 +10224,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
@@ -11080,7 +11092,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C81" s="1">
         <v>19</v>
@@ -11763,10 +11775,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I8" sqref="I5:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11846,28 +11858,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E3" s="5">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5">
         <v>10</v>
       </c>
-      <c r="H3" s="5">
-        <v>5</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -11877,28 +11889,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5">
         <v>10</v>
       </c>
-      <c r="G4" s="5">
-        <v>5</v>
-      </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -11908,28 +11920,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5">
         <v>10</v>
       </c>
-      <c r="F5" s="5">
-        <v>5</v>
-      </c>
       <c r="G5" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -11939,19 +11951,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5">
-        <v>5</v>
-      </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -11960,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -11970,16 +11982,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -11991,7 +12003,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -12001,13 +12013,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -12021,8 +12033,8 @@
       <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>104</v>
+      <c r="I8" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="7"/>
@@ -12054,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="7"/>
@@ -12086,7 +12098,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -12117,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -12148,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -12179,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -12210,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -12241,9 +12253,9 @@
         <v>0</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="J15" s="8"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
@@ -12273,9 +12285,9 @@
         <v>0</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="J16" s="8"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
@@ -12305,9 +12317,9 @@
         <v>0</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="J17" s="8"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
@@ -12337,9 +12349,9 @@
         <v>0</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="J18" s="8"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
@@ -12369,8 +12381,9 @@
         <v>0</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>105</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1">
       <c r="A20" s="1">
@@ -12398,8 +12411,9 @@
         <v>0</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>105</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1">
       <c r="A21" s="1">
@@ -12427,9 +12441,9 @@
         <v>0</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="J21" s="8"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
@@ -12459,14 +12473,18 @@
         <v>0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="J22" s="8"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" ht="20" customHeight="1">
       <c r="C23" s="6"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="20" customHeight="1">
+      <c r="J24" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -12484,7 +12502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -13144,7 +13162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L170"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A57" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A45" workbookViewId="0">
       <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
@@ -15191,42 +15209,42 @@
         <v>55</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -16567,7 +16585,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C81" s="3">
         <v>18</v>
@@ -16595,7 +16613,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C83" s="3">
         <v>2</v>
@@ -17297,7 +17315,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -18487,7 +18505,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C95" s="3">
         <v>13</v>
